--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +543,40 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N2">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q2">
-        <v>0.1125635123944445</v>
+        <v>0.007254433611111112</v>
       </c>
       <c r="R2">
-        <v>1.01307161155</v>
+        <v>0.0652899025</v>
       </c>
       <c r="S2">
-        <v>0.05488151065212164</v>
+        <v>0.00205447891270149</v>
       </c>
       <c r="T2">
-        <v>0.05488151065212162</v>
+        <v>0.002054478912701489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +605,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +617,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7602199999999999</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N3">
-        <v>2.28066</v>
+        <v>2.202569</v>
       </c>
       <c r="O3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="P3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="Q3">
-        <v>0.1165543963333333</v>
+        <v>0.1125635123944445</v>
       </c>
       <c r="R3">
-        <v>1.048989567</v>
+        <v>1.01307161155</v>
       </c>
       <c r="S3">
-        <v>0.05682730760483222</v>
+        <v>0.03187834846262774</v>
       </c>
       <c r="T3">
-        <v>0.05682730760483221</v>
+        <v>0.03187834846262773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9559960000000002</v>
+        <v>0.1533166666666667</v>
       </c>
       <c r="H4">
-        <v>2.867988</v>
+        <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.6965529954454279</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.6965529954454278</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +679,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7341896666666666</v>
+        <v>1.683518666666667</v>
       </c>
       <c r="N4">
-        <v>2.202569</v>
+        <v>5.050556</v>
       </c>
       <c r="O4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="P4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="Q4">
-        <v>0.7018823845746668</v>
+        <v>0.2581114702444445</v>
       </c>
       <c r="R4">
-        <v>6.316941461172001</v>
+        <v>2.3230032322</v>
       </c>
       <c r="S4">
-        <v>0.3422100532061246</v>
+        <v>0.07309799788247964</v>
       </c>
       <c r="T4">
-        <v>0.3422100532061246</v>
+        <v>0.07309799788247963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9559960000000002</v>
+        <v>0.1533166666666667</v>
       </c>
       <c r="H5">
-        <v>2.867988</v>
+        <v>0.45995</v>
       </c>
       <c r="I5">
-        <v>0.6965529954454279</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J5">
-        <v>0.6965529954454278</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,152 +741,772 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7602199999999999</v>
+        <v>0.072253</v>
       </c>
       <c r="N5">
-        <v>2.28066</v>
+        <v>0.216759</v>
       </c>
       <c r="O5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="P5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="Q5">
-        <v>0.7267672791200001</v>
+        <v>0.01107758911666667</v>
       </c>
       <c r="R5">
-        <v>6.54090551208</v>
+        <v>0.09969830205000001</v>
       </c>
       <c r="S5">
-        <v>0.3543429422393033</v>
+        <v>0.0031372088385929</v>
       </c>
       <c r="T5">
-        <v>0.3543429422393032</v>
+        <v>0.0031372088385929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2631543333333333</v>
+        <v>0.9559960000000002</v>
       </c>
       <c r="H6">
-        <v>0.789463</v>
+        <v>2.867988</v>
       </c>
       <c r="I6">
-        <v>0.1917381862976183</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J6">
-        <v>0.1917381862976183</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N6">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q6">
-        <v>0.1932051922718889</v>
+        <v>0.04523454406666667</v>
       </c>
       <c r="R6">
-        <v>1.738846730447</v>
+        <v>0.4071108966</v>
       </c>
       <c r="S6">
-        <v>0.0941992000086007</v>
+        <v>0.01281056825281209</v>
       </c>
       <c r="T6">
-        <v>0.09419920000860069</v>
+        <v>0.01281056825281209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9559960000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.867988</v>
+      </c>
+      <c r="I7">
+        <v>0.6869455370628789</v>
+      </c>
+      <c r="J7">
+        <v>0.6869455370628788</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.202569</v>
+      </c>
+      <c r="O7">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P7">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q7">
+        <v>0.7018823845746668</v>
+      </c>
+      <c r="R7">
+        <v>6.316941461172001</v>
+      </c>
+      <c r="S7">
+        <v>0.1987753469956187</v>
+      </c>
+      <c r="T7">
+        <v>0.1987753469956186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9559960000000002</v>
+      </c>
+      <c r="H8">
+        <v>2.867988</v>
+      </c>
+      <c r="I8">
+        <v>0.6869455370628789</v>
+      </c>
+      <c r="J8">
+        <v>0.6869455370628788</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.050556</v>
+      </c>
+      <c r="O8">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P8">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q8">
+        <v>1.609437111258667</v>
+      </c>
+      <c r="R8">
+        <v>14.484934001328</v>
+      </c>
+      <c r="S8">
+        <v>0.4557977622588913</v>
+      </c>
+      <c r="T8">
+        <v>0.4557977622588912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9559960000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.867988</v>
+      </c>
+      <c r="I9">
+        <v>0.6869455370628789</v>
+      </c>
+      <c r="J9">
+        <v>0.6869455370628788</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.072253</v>
+      </c>
+      <c r="N9">
+        <v>0.216759</v>
+      </c>
+      <c r="O9">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P9">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q9">
+        <v>0.06907357898800001</v>
+      </c>
+      <c r="R9">
+        <v>0.6216622108920001</v>
+      </c>
+      <c r="S9">
+        <v>0.01956185955555685</v>
+      </c>
+      <c r="T9">
+        <v>0.01956185955555685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.37954</v>
+      </c>
+      <c r="I10">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J10">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04731666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.14195</v>
+      </c>
+      <c r="O10">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="P10">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="Q10">
+        <v>0.005986189222222223</v>
+      </c>
+      <c r="R10">
+        <v>0.053875703</v>
+      </c>
+      <c r="S10">
+        <v>0.001695308025930478</v>
+      </c>
+      <c r="T10">
+        <v>0.001695308025930478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.2631543333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.789463</v>
-      </c>
-      <c r="I7">
-        <v>0.1917381862976183</v>
-      </c>
-      <c r="J7">
-        <v>0.1917381862976183</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7602199999999999</v>
-      </c>
-      <c r="N7">
-        <v>2.28066</v>
-      </c>
-      <c r="O7">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="P7">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="Q7">
-        <v>0.2000551872866666</v>
-      </c>
-      <c r="R7">
-        <v>1.80049668558</v>
-      </c>
-      <c r="S7">
-        <v>0.09753898628901761</v>
-      </c>
-      <c r="T7">
-        <v>0.09753898628901761</v>
+      <c r="G11">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.37954</v>
+      </c>
+      <c r="I11">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J11">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.202569</v>
+      </c>
+      <c r="O11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q11">
+        <v>0.09288478202888889</v>
+      </c>
+      <c r="R11">
+        <v>0.83596303826</v>
+      </c>
+      <c r="S11">
+        <v>0.02630526878031466</v>
+      </c>
+      <c r="T11">
+        <v>0.02630526878031466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.37954</v>
+      </c>
+      <c r="I12">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J12">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.050556</v>
+      </c>
+      <c r="O12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q12">
+        <v>0.2129875582488889</v>
+      </c>
+      <c r="R12">
+        <v>1.91688802424</v>
+      </c>
+      <c r="S12">
+        <v>0.06031876098775153</v>
+      </c>
+      <c r="T12">
+        <v>0.06031876098775153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1265133333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.37954</v>
+      </c>
+      <c r="I13">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="J13">
+        <v>0.09090808927263468</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.072253</v>
+      </c>
+      <c r="N13">
+        <v>0.216759</v>
+      </c>
+      <c r="O13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q13">
+        <v>0.009140967873333333</v>
+      </c>
+      <c r="R13">
+        <v>0.08226871086</v>
+      </c>
+      <c r="S13">
+        <v>0.002588751478638002</v>
+      </c>
+      <c r="T13">
+        <v>0.002588751478638002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.155836</v>
+      </c>
+      <c r="H14">
+        <v>0.467508</v>
+      </c>
+      <c r="I14">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J14">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04731666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.14195</v>
+      </c>
+      <c r="O14">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="P14">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="Q14">
+        <v>0.007373640066666667</v>
+      </c>
+      <c r="R14">
+        <v>0.06636276059999999</v>
+      </c>
+      <c r="S14">
+        <v>0.002088238564016193</v>
+      </c>
+      <c r="T14">
+        <v>0.002088238564016193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.155836</v>
+      </c>
+      <c r="H15">
+        <v>0.467508</v>
+      </c>
+      <c r="I15">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J15">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.202569</v>
+      </c>
+      <c r="O15">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P15">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q15">
+        <v>0.1144131808946667</v>
+      </c>
+      <c r="R15">
+        <v>1.029718628052</v>
+      </c>
+      <c r="S15">
+        <v>0.032402180526288</v>
+      </c>
+      <c r="T15">
+        <v>0.03240218052628799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.155836</v>
+      </c>
+      <c r="H16">
+        <v>0.467508</v>
+      </c>
+      <c r="I16">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J16">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.050556</v>
+      </c>
+      <c r="O16">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P16">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q16">
+        <v>0.2623528149386667</v>
+      </c>
+      <c r="R16">
+        <v>2.361175334448</v>
+      </c>
+      <c r="S16">
+        <v>0.07429916033056264</v>
+      </c>
+      <c r="T16">
+        <v>0.07429916033056264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.155836</v>
+      </c>
+      <c r="H17">
+        <v>0.467508</v>
+      </c>
+      <c r="I17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.072253</v>
+      </c>
+      <c r="N17">
+        <v>0.216759</v>
+      </c>
+      <c r="O17">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P17">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q17">
+        <v>0.011259618508</v>
+      </c>
+      <c r="R17">
+        <v>0.101336566572</v>
+      </c>
+      <c r="S17">
+        <v>0.003188760147217935</v>
+      </c>
+      <c r="T17">
+        <v>0.003188760147217935</v>
       </c>
     </row>
   </sheetData>
